--- a/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
@@ -5509,7 +5509,9 @@
       <c r="C116" t="n">
         <v>20.1</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>18.2</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -5520,7 +5522,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>20.25</v>
+        <v>19.57</v>
       </c>
     </row>
     <row r="117">
@@ -10601,7 +10603,9 @@
       <c r="C116" t="n">
         <v>17.92</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>15.32</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -10612,7 +10616,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>17.82</v>
+        <v>16.99</v>
       </c>
     </row>
     <row r="117">
@@ -15773,7 +15777,9 @@
       <c r="C116" t="n">
         <v>17.94</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>15.94</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -15784,7 +15790,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>17.74</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="117">
@@ -20945,7 +20951,9 @@
       <c r="C116" t="n">
         <v>19.3</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>16.7</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -20956,7 +20964,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>19.3</v>
+        <v>18.43</v>
       </c>
     </row>
     <row r="117">
@@ -26023,7 +26031,9 @@
       <c r="C116" t="n">
         <v>18</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>14.8</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -26034,7 +26044,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>18.55</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="117">
@@ -31195,7 +31205,9 @@
       <c r="C116" t="n">
         <v>18.4</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>15.2</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -31206,7 +31218,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>18.1</v>
+        <v>17.13</v>
       </c>
     </row>
     <row r="117">
@@ -36367,7 +36379,9 @@
       <c r="C116" t="n">
         <v>17.5</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>14.8</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -36378,7 +36392,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>17.15</v>
+        <v>16.37</v>
       </c>
     </row>
     <row r="117">
@@ -41539,7 +41553,9 @@
       <c r="C116" t="n">
         <v>18.45</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>15.85</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -41550,7 +41566,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>18.42</v>
+        <v>17.56</v>
       </c>
     </row>
     <row r="117">
@@ -46711,7 +46727,9 @@
       <c r="C116" t="n">
         <v>18.45125</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>15.85125</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -46722,7 +46740,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>18.42</v>
+        <v>17.56</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
@@ -5512,7 +5512,9 @@
       <c r="D116" t="n">
         <v>18.2</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>17.9</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -5522,7 +5524,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>19.57</v>
+        <v>19.15</v>
       </c>
     </row>
     <row r="117">
@@ -10606,7 +10608,9 @@
       <c r="D116" t="n">
         <v>15.32</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>14.22</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -10616,7 +10620,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>16.99</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="117">
@@ -15780,7 +15784,9 @@
       <c r="D116" t="n">
         <v>15.94</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>14.44</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -15790,7 +15796,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>17.14</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="117">
@@ -20954,7 +20960,9 @@
       <c r="D116" t="n">
         <v>16.7</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>14.7</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -20964,7 +20972,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>18.43</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="117">
@@ -26034,7 +26042,9 @@
       <c r="D116" t="n">
         <v>14.8</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>13.6</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -26044,7 +26054,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>17.3</v>
+        <v>16.38</v>
       </c>
     </row>
     <row r="117">
@@ -31208,7 +31218,9 @@
       <c r="D116" t="n">
         <v>15.2</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>13.5</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -31218,7 +31230,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>17.13</v>
+        <v>16.23</v>
       </c>
     </row>
     <row r="117">
@@ -36382,7 +36394,9 @@
       <c r="D116" t="n">
         <v>14.8</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>12.9</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -36392,7 +36406,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>16.37</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="117">
@@ -41556,7 +41570,9 @@
       <c r="D116" t="n">
         <v>15.85</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>14.47</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -41566,7 +41582,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>17.56</v>
+        <v>16.79</v>
       </c>
     </row>
     <row r="117">
@@ -46730,7 +46746,9 @@
       <c r="D116" t="n">
         <v>15.85125</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>14.46625</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -46740,7 +46758,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>17.56</v>
+        <v>16.79</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
@@ -5515,8 +5515,12 @@
       <c r="E116" t="n">
         <v>17.9</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="G116" t="n">
+        <v>12.4</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -5524,7 +5528,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>19.15</v>
+        <v>17.45</v>
       </c>
     </row>
     <row r="117">
@@ -10611,8 +10615,12 @@
       <c r="E116" t="n">
         <v>14.22</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="G116" t="n">
+        <v>9.520000000000001</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -10620,7 +10628,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>16.3</v>
+        <v>14.62</v>
       </c>
     </row>
     <row r="117">
@@ -15787,8 +15795,12 @@
       <c r="E116" t="n">
         <v>14.44</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="G116" t="n">
+        <v>10.94</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -15796,7 +15808,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>16.46</v>
+        <v>15.11</v>
       </c>
     </row>
     <row r="117">
@@ -20963,8 +20975,12 @@
       <c r="E116" t="n">
         <v>14.7</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="G116" t="n">
+        <v>10.1</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -20972,7 +20988,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>17.5</v>
+        <v>15.55</v>
       </c>
     </row>
     <row r="117">
@@ -26045,8 +26061,12 @@
       <c r="E116" t="n">
         <v>13.6</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G116" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -26054,7 +26074,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>16.38</v>
+        <v>14.62</v>
       </c>
     </row>
     <row r="117">
@@ -31221,8 +31241,12 @@
       <c r="E116" t="n">
         <v>13.5</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>12</v>
+      </c>
+      <c r="G116" t="n">
+        <v>9</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -31230,7 +31254,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>16.23</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="117">
@@ -36397,8 +36421,12 @@
       <c r="E116" t="n">
         <v>12.9</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="G116" t="n">
+        <v>9.1</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -36406,7 +36434,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>15.5</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="117">
@@ -41573,8 +41601,12 @@
       <c r="E116" t="n">
         <v>14.47</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="G116" t="n">
+        <v>10.11</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -41582,7 +41614,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>16.79</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="117">
@@ -46749,8 +46781,12 @@
       <c r="E116" t="n">
         <v>14.46625</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>13.1375</v>
+      </c>
+      <c r="G116" t="n">
+        <v>10.10875</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -46758,7 +46794,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>16.79</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
@@ -5521,14 +5521,16 @@
       <c r="G116" t="n">
         <v>12.4</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>12.2</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>17.45</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="117">
@@ -10621,14 +10623,16 @@
       <c r="G116" t="n">
         <v>9.520000000000001</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>8.520000000000001</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>14.62</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="117">
@@ -15801,14 +15805,16 @@
       <c r="G116" t="n">
         <v>10.94</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>9.539999999999999</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>15.11</v>
+        <v>14.31</v>
       </c>
     </row>
     <row r="117">
@@ -20981,14 +20987,16 @@
       <c r="G116" t="n">
         <v>10.1</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>9.1</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>15.55</v>
+        <v>14.63</v>
       </c>
     </row>
     <row r="117">
@@ -26065,16 +26073,18 @@
         <v>12.5</v>
       </c>
       <c r="G116" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="H116" t="inlineStr"/>
+        <v>9.6</v>
+      </c>
+      <c r="H116" t="n">
+        <v>8.6</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>14.62</v>
+        <v>13.74</v>
       </c>
     </row>
     <row r="117">
@@ -31247,14 +31257,16 @@
       <c r="G116" t="n">
         <v>9</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>7.5</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>14.32</v>
+        <v>13.34</v>
       </c>
     </row>
     <row r="117">
@@ -36427,14 +36439,16 @@
       <c r="G116" t="n">
         <v>9.1</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>8.5</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.8</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="117">
@@ -41605,16 +41619,18 @@
         <v>13.14</v>
       </c>
       <c r="G116" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="H116" t="inlineStr"/>
+        <v>10.09</v>
+      </c>
+      <c r="H116" t="n">
+        <v>9.140000000000001</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>15.07</v>
+        <v>14.22</v>
       </c>
     </row>
     <row r="117">
@@ -46785,16 +46801,18 @@
         <v>13.1375</v>
       </c>
       <c r="G116" t="n">
-        <v>10.10875</v>
-      </c>
-      <c r="H116" t="inlineStr"/>
+        <v>10.09375</v>
+      </c>
+      <c r="H116" t="n">
+        <v>9.137499999999999</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>15.07</v>
+        <v>14.22</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
@@ -5524,13 +5524,15 @@
       <c r="H116" t="n">
         <v>12.2</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>10.9</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>16.7</v>
+        <v>15.98</v>
       </c>
     </row>
     <row r="117">
@@ -10626,13 +10628,15 @@
       <c r="H116" t="n">
         <v>8.520000000000001</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>7.819999999999999</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.75</v>
+        <v>13.01</v>
       </c>
     </row>
     <row r="117">
@@ -15808,13 +15812,15 @@
       <c r="H116" t="n">
         <v>9.539999999999999</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>8.74</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>14.31</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="117">
@@ -20990,13 +20996,15 @@
       <c r="H116" t="n">
         <v>9.1</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>8.1</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>14.63</v>
+        <v>13.81</v>
       </c>
     </row>
     <row r="117">
@@ -26078,13 +26086,15 @@
       <c r="H116" t="n">
         <v>8.6</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>7.7</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.74</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="117">
@@ -31260,13 +31270,15 @@
       <c r="H116" t="n">
         <v>7.5</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>7.5</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.34</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="117">
@@ -36442,13 +36454,15 @@
       <c r="H116" t="n">
         <v>8.5</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>8.1</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.04</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="117">
@@ -41624,13 +41638,15 @@
       <c r="H116" t="n">
         <v>9.140000000000001</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>8.41</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>14.22</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="117">
@@ -46806,13 +46822,15 @@
       <c r="H116" t="n">
         <v>9.137499999999999</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>8.408750000000001</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>14.22</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
@@ -5527,12 +5527,14 @@
       <c r="I116" t="n">
         <v>10.9</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>14.2</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>15.98</v>
+        <v>15.78</v>
       </c>
     </row>
     <row r="117">
@@ -10631,12 +10633,14 @@
       <c r="I116" t="n">
         <v>7.819999999999999</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>12.02</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.01</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="117">
@@ -15815,12 +15819,14 @@
       <c r="I116" t="n">
         <v>8.74</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>11.84</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.62</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="117">
@@ -20999,12 +21005,14 @@
       <c r="I116" t="n">
         <v>8.1</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>11.9</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.81</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="117">
@@ -26089,12 +26097,14 @@
       <c r="I116" t="n">
         <v>7.7</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>10.8</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.99</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="117">
@@ -31273,12 +31283,14 @@
       <c r="I116" t="n">
         <v>7.5</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.61</v>
+        <v>12.47</v>
       </c>
     </row>
     <row r="117">
@@ -36457,12 +36469,14 @@
       <c r="I116" t="n">
         <v>8.1</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>10.9</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.42</v>
+        <v>12.26</v>
       </c>
     </row>
     <row r="117">
@@ -41641,12 +41655,14 @@
       <c r="I116" t="n">
         <v>8.41</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>11.85</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.49</v>
+        <v>13.31</v>
       </c>
     </row>
     <row r="117">
@@ -46825,12 +46841,14 @@
       <c r="I116" t="n">
         <v>8.408750000000001</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>11.85125</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.49</v>
+        <v>13.31</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
@@ -5530,11 +5530,13 @@
       <c r="J116" t="n">
         <v>14.2</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>15.78</v>
+        <v>15.73</v>
       </c>
     </row>
     <row r="117">
@@ -10636,11 +10638,13 @@
       <c r="J116" t="n">
         <v>12.02</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>12.32</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.9</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="117">
@@ -15822,11 +15826,13 @@
       <c r="J116" t="n">
         <v>11.84</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>12.24</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.42</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="117">
@@ -21008,11 +21014,13 @@
       <c r="J116" t="n">
         <v>11.9</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>13</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.6</v>
+        <v>13.54</v>
       </c>
     </row>
     <row r="117">
@@ -26100,11 +26108,13 @@
       <c r="J116" t="n">
         <v>10.8</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>10.9</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.74</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="117">
@@ -31286,11 +31296,13 @@
       <c r="J116" t="n">
         <v>11.3</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.47</v>
+        <v>12.43</v>
       </c>
     </row>
     <row r="117">
@@ -36472,11 +36484,13 @@
       <c r="J116" t="n">
         <v>10.9</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>11.9</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.26</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="117">
@@ -41658,11 +41672,13 @@
       <c r="J116" t="n">
         <v>11.85</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>12.54</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.31</v>
+        <v>13.23</v>
       </c>
     </row>
     <row r="117">
@@ -46844,11 +46860,13 @@
       <c r="J116" t="n">
         <v>11.85125</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>12.5375</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.31</v>
+        <v>13.23</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
@@ -5533,10 +5533,12 @@
       <c r="K116" t="n">
         <v>15.3</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>16.7</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>15.73</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="117">
@@ -10641,10 +10643,12 @@
       <c r="K116" t="n">
         <v>12.32</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>14.42</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.84</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="117">
@@ -15829,10 +15833,12 @@
       <c r="K116" t="n">
         <v>12.24</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>13.74</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.3</v>
+        <v>13.34</v>
       </c>
     </row>
     <row r="117">
@@ -21017,10 +21023,12 @@
       <c r="K116" t="n">
         <v>13</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>14.9</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.54</v>
+        <v>13.66</v>
       </c>
     </row>
     <row r="117">
@@ -26111,10 +26119,12 @@
       <c r="K116" t="n">
         <v>10.9</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>13.2</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.56</v>
+        <v>12.62</v>
       </c>
     </row>
     <row r="117">
@@ -31299,10 +31309,12 @@
       <c r="K116" t="n">
         <v>12.1</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>13.5</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.43</v>
+        <v>12.53</v>
       </c>
     </row>
     <row r="117">
@@ -36487,10 +36499,12 @@
       <c r="K116" t="n">
         <v>11.9</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>12.3</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.22</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="117">
@@ -41675,10 +41689,12 @@
       <c r="K116" t="n">
         <v>12.54</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>14.11</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.23</v>
+        <v>13.31</v>
       </c>
     </row>
     <row r="117">
@@ -46863,10 +46879,12 @@
       <c r="K116" t="n">
         <v>12.5375</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>14.10875</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.23</v>
+        <v>13.31</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5536,54 +5536,74 @@
       <c r="L116" t="n">
         <v>16.7</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>19.6</v>
+      </c>
       <c r="N116" t="n">
-        <v>15.82</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>19.99</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>20.49</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>18.89</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>16.59</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>14.24</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>12.07</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>11.15</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>11.74</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>13.15</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>14.57</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>16.21</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>18.51</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>15.63</v>
       </c>
     </row>
@@ -5598,7 +5618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10646,54 +10666,74 @@
       <c r="L116" t="n">
         <v>14.42</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>17.72</v>
+      </c>
       <c r="N116" t="n">
-        <v>12.98</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>17.69</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>17.69</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>15.75</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>12.95</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>10.54</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>8.220000000000001</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>7.74</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>8.619999999999999</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>10.25</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>12.02</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>13.61</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>16.11</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>12.6</v>
       </c>
     </row>
@@ -10708,7 +10748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15836,54 +15876,74 @@
       <c r="L116" t="n">
         <v>13.74</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>15.94</v>
+      </c>
       <c r="N116" t="n">
-        <v>13.34</v>
+        <v>13.56</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>16.9</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>17.23</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>15.85</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>13.78</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>11.98</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>9.81</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>9.140000000000001</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>9.619999999999999</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>10.81</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>12.05</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>13.42</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>15.51</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>13.01</v>
       </c>
     </row>
@@ -15898,7 +15958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21026,54 +21086,74 @@
       <c r="L116" t="n">
         <v>14.9</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>18.2</v>
+      </c>
       <c r="N116" t="n">
-        <v>13.66</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>18.13</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>18.22</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>16.43</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>13.69</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>11.16</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>8.48</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>7.65</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>8.83</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>10.66</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>12.71</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>14.45</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>16.69</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>13.09</v>
       </c>
     </row>
@@ -21088,7 +21168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26122,54 +26202,74 @@
       <c r="L116" t="n">
         <v>13.2</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>15.4</v>
+      </c>
       <c r="N116" t="n">
-        <v>12.62</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>15.75</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>16.04</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>14.68</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>12.59</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>10.55</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>8.369999999999999</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>7.56</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>8.43</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>9.880000000000001</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>11.2</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>12.58</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>14.54</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>11.85</v>
       </c>
     </row>
@@ -26184,7 +26284,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31312,54 +31412,74 @@
       <c r="L116" t="n">
         <v>13.5</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>16.7</v>
+      </c>
       <c r="N116" t="n">
-        <v>12.53</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>16.86</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>16.8</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>14.99</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>12.25</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>9.76</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>6.92</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>6.4</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>7.71</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>9.720000000000001</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>11.6</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>13.28</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>15.46</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>11.81</v>
       </c>
     </row>
@@ -31374,7 +31494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36502,54 +36622,74 @@
       <c r="L116" t="n">
         <v>12.3</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>14.8</v>
+      </c>
       <c r="N116" t="n">
-        <v>12.23</v>
+        <v>12.44</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>15.23</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>15.09</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>13.87</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>11.79</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>9.619999999999999</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>7.35</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>6.7</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>7.79</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>9.529999999999999</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>10.95</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>12.31</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>14</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>11.19</v>
       </c>
     </row>
@@ -36564,7 +36704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41692,54 +41832,74 @@
       <c r="L116" t="n">
         <v>14.11</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>16.91</v>
+      </c>
       <c r="N116" t="n">
-        <v>13.31</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>17.22</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>17.36</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>15.78</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>13.38</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>11.12</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>8.75</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>8.960000000000001</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>10.57</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>12.16</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>13.69</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>15.83</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>12.74</v>
       </c>
     </row>
@@ -41754,7 +41914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46882,54 +47042,74 @@
       <c r="L116" t="n">
         <v>14.10875</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>16.90875</v>
+      </c>
       <c r="N116" t="n">
-        <v>13.31</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>17.22</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>17.36</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>15.78</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>13.38</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>11.12</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>8.75</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>8.960000000000001</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>10.57</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>12.16</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>13.69</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>15.83</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>12.74</v>
       </c>
     </row>

--- a/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
@@ -5547,7 +5547,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>21.6</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -5559,7 +5561,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>21.6</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -10677,7 +10681,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>19.32</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -10689,7 +10695,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>19.32</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -15887,7 +15895,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>18.44</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -15899,7 +15909,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>18.44</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -21097,7 +21109,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>19.4</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -21109,7 +21123,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>19.4</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -26213,7 +26229,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>16.5</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -26225,7 +26243,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -31423,7 +31443,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>18.3</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -31435,7 +31457,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>18.3</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -36633,7 +36657,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>16.1</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -36645,7 +36671,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>16.1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -41843,7 +41871,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>18.52</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -41855,7 +41885,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>18.52</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -47053,7 +47085,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>18.5225</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -47065,7 +47099,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>18.52</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">

--- a/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
@@ -5550,7 +5550,9 @@
       <c r="B117" t="n">
         <v>21.6</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>20.5</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -5562,7 +5564,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>21.6</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="118">
@@ -10684,7 +10686,9 @@
       <c r="B117" t="n">
         <v>19.32</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>17.72</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -10696,7 +10700,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>19.32</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="118">
@@ -15898,7 +15902,9 @@
       <c r="B117" t="n">
         <v>18.44</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>17.34</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -15910,7 +15916,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>18.44</v>
+        <v>17.89</v>
       </c>
     </row>
     <row r="118">
@@ -21112,7 +21118,9 @@
       <c r="B117" t="n">
         <v>19.4</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>18.1</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -21124,7 +21132,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>19.4</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="118">
@@ -26232,7 +26240,9 @@
       <c r="B117" t="n">
         <v>16.5</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>14.8</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -26244,7 +26254,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>16.5</v>
+        <v>15.65</v>
       </c>
     </row>
     <row r="118">
@@ -31446,7 +31456,9 @@
       <c r="B117" t="n">
         <v>18.3</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>16.6</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -31458,7 +31470,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>18.3</v>
+        <v>17.45</v>
       </c>
     </row>
     <row r="118">
@@ -36660,7 +36672,9 @@
       <c r="B117" t="n">
         <v>16.1</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>15.7</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -36672,7 +36686,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="118">
@@ -41874,7 +41888,9 @@
       <c r="B117" t="n">
         <v>18.52</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>17.25</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -41886,7 +41902,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>18.52</v>
+        <v>17.88</v>
       </c>
     </row>
     <row r="118">
@@ -47088,7 +47104,9 @@
       <c r="B117" t="n">
         <v>18.5225</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>17.25125</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -47100,7 +47118,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>18.52</v>
+        <v>17.89</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
@@ -5553,7 +5553,9 @@
       <c r="C117" t="n">
         <v>20.5</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>17.8</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -5564,7 +5566,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>21.05</v>
+        <v>19.97</v>
       </c>
     </row>
     <row r="118">
@@ -10689,7 +10691,9 @@
       <c r="C117" t="n">
         <v>17.72</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>14.82</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -10700,7 +10704,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>18.52</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="118">
@@ -15905,7 +15909,9 @@
       <c r="C117" t="n">
         <v>17.34</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>15.14</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -15916,7 +15922,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>17.89</v>
+        <v>16.97</v>
       </c>
     </row>
     <row r="118">
@@ -21121,7 +21127,9 @@
       <c r="C117" t="n">
         <v>18.1</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>15.7</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -21132,7 +21140,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>18.75</v>
+        <v>17.73</v>
       </c>
     </row>
     <row r="118">
@@ -26243,7 +26251,9 @@
       <c r="C117" t="n">
         <v>14.8</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>13.4</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -26254,7 +26264,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>15.65</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="118">
@@ -31459,7 +31469,9 @@
       <c r="C117" t="n">
         <v>16.6</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>13.7</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -31470,7 +31482,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>17.45</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="118">
@@ -36675,7 +36687,9 @@
       <c r="C117" t="n">
         <v>15.7</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>13</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -36686,7 +36700,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>15.9</v>
+        <v>14.93</v>
       </c>
     </row>
     <row r="118">
@@ -41891,7 +41905,9 @@
       <c r="C117" t="n">
         <v>17.25</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>14.79</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -41902,7 +41918,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>17.88</v>
+        <v>16.85</v>
       </c>
     </row>
     <row r="118">
@@ -47107,7 +47123,9 @@
       <c r="C117" t="n">
         <v>17.25125</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>14.79375</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -47118,7 +47136,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>17.89</v>
+        <v>16.86</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
@@ -5556,7 +5556,9 @@
       <c r="D117" t="n">
         <v>17.8</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>17</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -5566,7 +5568,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>19.97</v>
+        <v>19.23</v>
       </c>
     </row>
     <row r="118">
@@ -10694,7 +10696,9 @@
       <c r="D117" t="n">
         <v>14.82</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>13.32</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -10704,7 +10708,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>17.29</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="118">
@@ -15912,7 +15916,9 @@
       <c r="D117" t="n">
         <v>15.14</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>14.14</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -15922,7 +15928,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>16.97</v>
+        <v>16.26</v>
       </c>
     </row>
     <row r="118">
@@ -21130,7 +21136,9 @@
       <c r="D117" t="n">
         <v>15.7</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>14.3</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -21140,7 +21148,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>17.73</v>
+        <v>16.88</v>
       </c>
     </row>
     <row r="118">
@@ -26254,7 +26262,9 @@
       <c r="D117" t="n">
         <v>13.4</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>12.8</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -26264,7 +26274,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.9</v>
+        <v>14.38</v>
       </c>
     </row>
     <row r="118">
@@ -31388,7 +31398,7 @@
         <v>13.2</v>
       </c>
       <c r="F115" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="G115" t="n">
         <v>8.199999999999999</v>
@@ -31412,7 +31422,7 @@
         <v>16.4</v>
       </c>
       <c r="N115" t="n">
-        <v>12.55</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="116">
@@ -31472,7 +31482,9 @@
       <c r="D117" t="n">
         <v>13.7</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>13</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -31482,7 +31494,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="118">
@@ -36690,7 +36702,9 @@
       <c r="D117" t="n">
         <v>13</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>12.2</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -36700,7 +36714,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.93</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="118">
@@ -41824,7 +41838,7 @@
         <v>14.54</v>
       </c>
       <c r="F115" t="n">
-        <v>12.57</v>
+        <v>12.55</v>
       </c>
       <c r="G115" t="n">
         <v>9.91</v>
@@ -41908,7 +41922,9 @@
       <c r="D117" t="n">
         <v>14.79</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>13.82</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -41918,7 +41934,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>16.85</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="118">
@@ -47042,7 +47058,7 @@
         <v>14.5375</v>
       </c>
       <c r="F115" t="n">
-        <v>12.56625</v>
+        <v>12.55125</v>
       </c>
       <c r="G115" t="n">
         <v>9.90875</v>
@@ -47066,7 +47082,7 @@
         <v>16.99375</v>
       </c>
       <c r="N115" t="n">
-        <v>13.76</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="116">
@@ -47126,7 +47142,9 @@
       <c r="D117" t="n">
         <v>14.79375</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>13.8225</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -47136,7 +47154,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>16.86</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
@@ -5559,7 +5559,9 @@
       <c r="E117" t="n">
         <v>17</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>13.1</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -5568,7 +5570,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>19.23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
@@ -10699,7 +10701,9 @@
       <c r="E117" t="n">
         <v>13.32</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>9.220000000000001</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -10708,7 +10712,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>16.3</v>
+        <v>14.88</v>
       </c>
     </row>
     <row r="118">
@@ -15919,7 +15923,9 @@
       <c r="E117" t="n">
         <v>14.14</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>10.54</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -15928,7 +15934,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>16.26</v>
+        <v>15.12</v>
       </c>
     </row>
     <row r="118">
@@ -21139,7 +21145,9 @@
       <c r="E117" t="n">
         <v>14.3</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>9.9</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -21148,7 +21156,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>16.88</v>
+        <v>15.48</v>
       </c>
     </row>
     <row r="118">
@@ -26265,7 +26273,9 @@
       <c r="E117" t="n">
         <v>12.8</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -26274,7 +26284,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.38</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="118">
@@ -31485,7 +31495,9 @@
       <c r="E117" t="n">
         <v>13</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>7.5</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -31494,7 +31506,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>15.4</v>
+        <v>13.82</v>
       </c>
     </row>
     <row r="118">
@@ -36705,7 +36717,9 @@
       <c r="E117" t="n">
         <v>12.2</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>8.800000000000001</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -36714,7 +36728,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.25</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="118">
@@ -41925,7 +41939,9 @@
       <c r="E117" t="n">
         <v>13.82</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>9.82</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -41934,7 +41950,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>16.1</v>
+        <v>14.84</v>
       </c>
     </row>
     <row r="118">
@@ -47145,7 +47161,9 @@
       <c r="E117" t="n">
         <v>13.8225</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>9.822499999999998</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -47154,7 +47172,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>16.1</v>
+        <v>14.84</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
@@ -5562,7 +5562,9 @@
       <c r="F117" t="n">
         <v>13.1</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>13.4</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -5570,7 +5572,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>18</v>
+        <v>17.23</v>
       </c>
     </row>
     <row r="118">
@@ -10704,7 +10706,9 @@
       <c r="F117" t="n">
         <v>9.220000000000001</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>9.120000000000001</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -10712,7 +10716,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.88</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="118">
@@ -15926,7 +15930,9 @@
       <c r="F117" t="n">
         <v>10.54</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>10.64</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -15934,7 +15940,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>15.12</v>
+        <v>14.37</v>
       </c>
     </row>
     <row r="118">
@@ -21148,7 +21154,9 @@
       <c r="F117" t="n">
         <v>9.9</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -21156,7 +21164,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>15.48</v>
+        <v>14.52</v>
       </c>
     </row>
     <row r="118">
@@ -26276,7 +26284,9 @@
       <c r="F117" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>9.6</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -26284,7 +26294,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.44</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="118">
@@ -31498,7 +31508,9 @@
       <c r="F117" t="n">
         <v>7.5</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -31506,7 +31518,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.82</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="118">
@@ -36720,7 +36732,9 @@
       <c r="F117" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>8.9</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -36728,7 +36742,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.16</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="118">
@@ -41942,7 +41956,9 @@
       <c r="F117" t="n">
         <v>9.82</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>9.880000000000001</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -41950,7 +41966,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.84</v>
+        <v>14.01</v>
       </c>
     </row>
     <row r="118">
@@ -47164,7 +47180,9 @@
       <c r="F117" t="n">
         <v>9.822499999999998</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>9.879999999999999</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -47172,7 +47190,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.84</v>
+        <v>14.02</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
@@ -5565,14 +5565,16 @@
       <c r="G117" t="n">
         <v>13.4</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>11.6</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>17.23</v>
+        <v>16.43</v>
       </c>
     </row>
     <row r="118">
@@ -10709,14 +10711,16 @@
       <c r="G117" t="n">
         <v>9.120000000000001</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>8.520000000000001</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.92</v>
+        <v>13.15</v>
       </c>
     </row>
     <row r="118">
@@ -15933,14 +15937,16 @@
       <c r="G117" t="n">
         <v>10.64</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>9.84</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.37</v>
+        <v>13.73</v>
       </c>
     </row>
     <row r="118">
@@ -21157,14 +21163,16 @@
       <c r="G117" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>8.699999999999999</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.52</v>
+        <v>13.69</v>
       </c>
     </row>
     <row r="118">
@@ -26287,14 +26295,16 @@
       <c r="G117" t="n">
         <v>9.6</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>8.699999999999999</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.8</v>
+        <v>12.21</v>
       </c>
     </row>
     <row r="118">
@@ -31511,14 +31521,16 @@
       <c r="G117" t="n">
         <v>7.8</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>7.2</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.82</v>
+        <v>12.01</v>
       </c>
     </row>
     <row r="118">
@@ -36735,14 +36747,16 @@
       <c r="G117" t="n">
         <v>8.9</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>8.4</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.45</v>
+        <v>11.87</v>
       </c>
     </row>
     <row r="118">
@@ -41959,14 +41973,16 @@
       <c r="G117" t="n">
         <v>9.880000000000001</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>8.99</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.01</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="118">
@@ -47183,14 +47199,16 @@
       <c r="G117" t="n">
         <v>9.879999999999999</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>8.99375</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.02</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Auckland" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Masterton" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wellington" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nelson" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hokitika" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lincoln" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dunedin" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NZT7_TMean_rounded" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NZT7_TMean_unrounded" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Auckland" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Masterton" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Wellington" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Nelson" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Hokitika" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Lincoln" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Dunedin" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="NZT7_TMean_rounded" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="NZT7_TMean_unrounded" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -58,7 +58,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -5568,13 +5567,15 @@
       <c r="H117" t="n">
         <v>11.6</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>16.43</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="118">
@@ -10714,13 +10715,15 @@
       <c r="H117" t="n">
         <v>8.520000000000001</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>9.720000000000001</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.15</v>
+        <v>12.72</v>
       </c>
     </row>
     <row r="118">
@@ -15940,13 +15943,15 @@
       <c r="H117" t="n">
         <v>9.84</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>10.44</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.73</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="118">
@@ -21166,13 +21171,15 @@
       <c r="H117" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>9.4</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.69</v>
+        <v>13.15</v>
       </c>
     </row>
     <row r="118">
@@ -26298,13 +26305,15 @@
       <c r="H117" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.21</v>
+        <v>11.85</v>
       </c>
     </row>
     <row r="118">
@@ -31524,13 +31533,15 @@
       <c r="H117" t="n">
         <v>7.2</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>8.6</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.01</v>
+        <v>11.59</v>
       </c>
     </row>
     <row r="118">
@@ -36750,13 +36761,15 @@
       <c r="H117" t="n">
         <v>8.4</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>8.800000000000001</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.87</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="118">
@@ -41976,13 +41989,15 @@
       <c r="H117" t="n">
         <v>8.99</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>9.81</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.3</v>
+        <v>12.86</v>
       </c>
     </row>
     <row r="118">
@@ -47202,13 +47217,15 @@
       <c r="H117" t="n">
         <v>8.99375</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>9.808750000000002</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.3</v>
+        <v>12.86</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
@@ -5570,12 +5570,14 @@
       <c r="I117" t="n">
         <v>12.4</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>14</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>15.92</v>
+        <v>15.71</v>
       </c>
     </row>
     <row r="118">
@@ -10718,12 +10720,14 @@
       <c r="I117" t="n">
         <v>9.720000000000001</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>10.82</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.72</v>
+        <v>12.51</v>
       </c>
     </row>
     <row r="118">
@@ -15946,12 +15950,14 @@
       <c r="I117" t="n">
         <v>10.44</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>11.44</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.32</v>
+        <v>13.11</v>
       </c>
     </row>
     <row r="118">
@@ -21174,12 +21180,14 @@
       <c r="I117" t="n">
         <v>9.4</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>11.1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.15</v>
+        <v>12.92</v>
       </c>
     </row>
     <row r="118">
@@ -26308,12 +26316,14 @@
       <c r="I117" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>9.9</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.85</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="118">
@@ -31536,12 +31546,14 @@
       <c r="I117" t="n">
         <v>8.6</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>10.7</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.59</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="118">
@@ -36764,12 +36776,14 @@
       <c r="I117" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>10.6</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.49</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="118">
@@ -41992,12 +42006,14 @@
       <c r="I117" t="n">
         <v>9.81</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>11.22</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.86</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="118">
@@ -47220,12 +47236,14 @@
       <c r="I117" t="n">
         <v>9.808750000000002</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>11.2225</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.86</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
@@ -5573,11 +5573,13 @@
       <c r="J117" t="n">
         <v>14</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>15.71</v>
+        <v>15.68</v>
       </c>
     </row>
     <row r="118">
@@ -10723,11 +10725,13 @@
       <c r="J117" t="n">
         <v>10.82</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>12.92</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.51</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="118">
@@ -15953,11 +15957,13 @@
       <c r="J117" t="n">
         <v>11.44</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>13.04</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.11</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="118">
@@ -21183,11 +21189,13 @@
       <c r="J117" t="n">
         <v>11.1</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>13</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.92</v>
+        <v>12.93</v>
       </c>
     </row>
     <row r="118">
@@ -26319,11 +26327,13 @@
       <c r="J117" t="n">
         <v>9.9</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>12</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.63</v>
+        <v>11.67</v>
       </c>
     </row>
     <row r="118">
@@ -31549,11 +31559,13 @@
       <c r="J117" t="n">
         <v>10.7</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>12.3</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.49</v>
+        <v>11.57</v>
       </c>
     </row>
     <row r="118">
@@ -36779,11 +36791,13 @@
       <c r="J117" t="n">
         <v>10.6</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.39</v>
+        <v>11.42</v>
       </c>
     </row>
     <row r="118">
@@ -42009,11 +42023,13 @@
       <c r="J117" t="n">
         <v>11.22</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>12.91</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.68</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="118">
@@ -47239,11 +47255,13 @@
       <c r="J117" t="n">
         <v>11.2225</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>12.90875</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.68</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
@@ -42193,7 +42193,7 @@
         <v>8.426</v>
       </c>
       <c r="J2" t="n">
-        <v>9.600000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="K2" t="n">
         <v>11.5</v>
@@ -42269,10 +42269,10 @@
         <v>15.01666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>10.67666666666666</v>
+        <v>10.67666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>8.516666666666666</v>
+        <v>8.516666666666667</v>
       </c>
       <c r="H4" t="n">
         <v>7.156666666666666</v>
@@ -42307,7 +42307,7 @@
         <v>14.55571428571429</v>
       </c>
       <c r="D5" t="n">
-        <v>13.35571428571429</v>
+        <v>13.35571428571428</v>
       </c>
       <c r="E5" t="n">
         <v>12.57142857142857</v>
@@ -42360,7 +42360,7 @@
         <v>7.71125</v>
       </c>
       <c r="G6" t="n">
-        <v>6.95375</v>
+        <v>6.953750000000001</v>
       </c>
       <c r="H6" t="n">
         <v>7.82625</v>
@@ -42404,10 +42404,10 @@
         <v>8.5975</v>
       </c>
       <c r="G7" t="n">
-        <v>7.1825</v>
+        <v>7.182499999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>6.953750000000001</v>
+        <v>6.95375</v>
       </c>
       <c r="I7" t="n">
         <v>7.5825</v>
@@ -42495,10 +42495,10 @@
         <v>9.88625</v>
       </c>
       <c r="H9" t="n">
-        <v>8.071249999999999</v>
+        <v>8.071250000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>8.213750000000001</v>
+        <v>8.213749999999999</v>
       </c>
       <c r="J9" t="n">
         <v>10.3425</v>
@@ -42589,7 +42589,7 @@
         <v>7.92875</v>
       </c>
       <c r="J11" t="n">
-        <v>9.22875</v>
+        <v>9.228750000000002</v>
       </c>
       <c r="K11" t="n">
         <v>11.5575</v>
@@ -42630,7 +42630,7 @@
         <v>7.4575</v>
       </c>
       <c r="I12" t="n">
-        <v>8.286249999999999</v>
+        <v>8.286250000000001</v>
       </c>
       <c r="J12" t="n">
         <v>8.91375</v>
@@ -42671,13 +42671,13 @@
         <v>8.143750000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>7.616249999999999</v>
+        <v>7.61625</v>
       </c>
       <c r="I13" t="n">
         <v>7.1875</v>
       </c>
       <c r="J13" t="n">
-        <v>9.072500000000002</v>
+        <v>9.0725</v>
       </c>
       <c r="K13" t="n">
         <v>11.6725</v>
@@ -42712,13 +42712,13 @@
         <v>10.0275</v>
       </c>
       <c r="G14" t="n">
-        <v>8.741249999999999</v>
+        <v>8.741250000000001</v>
       </c>
       <c r="H14" t="n">
         <v>7.69875</v>
       </c>
       <c r="I14" t="n">
-        <v>8.198749999999999</v>
+        <v>8.19875</v>
       </c>
       <c r="J14" t="n">
         <v>10.5125</v>
@@ -42762,7 +42762,7 @@
         <v>7.0125</v>
       </c>
       <c r="I15" t="n">
-        <v>8.4125</v>
+        <v>8.412500000000001</v>
       </c>
       <c r="J15" t="n">
         <v>9.77</v>
@@ -42800,13 +42800,13 @@
         <v>10.44125</v>
       </c>
       <c r="G16" t="n">
-        <v>7.55625</v>
+        <v>7.556249999999999</v>
       </c>
       <c r="H16" t="n">
         <v>6.67</v>
       </c>
       <c r="I16" t="n">
-        <v>7.212499999999999</v>
+        <v>7.2125</v>
       </c>
       <c r="J16" t="n">
         <v>10.48375</v>
@@ -42844,7 +42844,7 @@
         <v>10.27375</v>
       </c>
       <c r="G17" t="n">
-        <v>8.331249999999999</v>
+        <v>8.331250000000001</v>
       </c>
       <c r="H17" t="n">
         <v>7.217500000000001</v>
@@ -42932,7 +42932,7 @@
         <v>10.2325</v>
       </c>
       <c r="G19" t="n">
-        <v>7.732500000000002</v>
+        <v>7.7325</v>
       </c>
       <c r="H19" t="n">
         <v>7.67625</v>
@@ -42941,7 +42941,7 @@
         <v>8.032499999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>9.818749999999998</v>
+        <v>9.81875</v>
       </c>
       <c r="K19" t="n">
         <v>11.76125</v>
@@ -42982,7 +42982,7 @@
         <v>7.50375</v>
       </c>
       <c r="I20" t="n">
-        <v>7.576249999999999</v>
+        <v>7.57625</v>
       </c>
       <c r="J20" t="n">
         <v>10.07625</v>
@@ -43023,13 +43023,13 @@
         <v>8.1175</v>
       </c>
       <c r="H21" t="n">
-        <v>8.331249999999999</v>
+        <v>8.331250000000001</v>
       </c>
       <c r="I21" t="n">
         <v>8.546250000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>9.931250000000002</v>
+        <v>9.93125</v>
       </c>
       <c r="K21" t="n">
         <v>12.04625</v>
@@ -43073,7 +43073,7 @@
         <v>7.819999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>9.00625</v>
+        <v>9.006250000000001</v>
       </c>
       <c r="K22" t="n">
         <v>11.82</v>
@@ -43105,19 +43105,19 @@
         <v>12.82</v>
       </c>
       <c r="F23" t="n">
-        <v>9.677499999999998</v>
+        <v>9.677500000000002</v>
       </c>
       <c r="G23" t="n">
         <v>7.34875</v>
       </c>
       <c r="H23" t="n">
-        <v>6.206250000000001</v>
+        <v>6.20625</v>
       </c>
       <c r="I23" t="n">
         <v>8.262499999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>8.633750000000001</v>
+        <v>8.633749999999999</v>
       </c>
       <c r="K23" t="n">
         <v>10.19125</v>
@@ -43155,10 +43155,10 @@
         <v>7.133750000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>7.0775</v>
+        <v>7.077500000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>7.277500000000001</v>
+        <v>7.2775</v>
       </c>
       <c r="J24" t="n">
         <v>8.362500000000001</v>
@@ -43199,7 +43199,7 @@
         <v>7.54125</v>
       </c>
       <c r="H25" t="n">
-        <v>6.070000000000001</v>
+        <v>6.07</v>
       </c>
       <c r="I25" t="n">
         <v>6.69875</v>
@@ -43237,10 +43237,10 @@
         <v>12.67</v>
       </c>
       <c r="F26" t="n">
-        <v>9.612499999999999</v>
+        <v>9.612500000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>6.798749999999999</v>
+        <v>6.79875</v>
       </c>
       <c r="H26" t="n">
         <v>7.27</v>
@@ -43281,13 +43281,13 @@
         <v>13.29875</v>
       </c>
       <c r="F27" t="n">
-        <v>9.427499999999998</v>
+        <v>9.4275</v>
       </c>
       <c r="G27" t="n">
-        <v>7.85625</v>
+        <v>7.856250000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>6.683750000000001</v>
+        <v>6.68375</v>
       </c>
       <c r="I27" t="n">
         <v>8.512499999999999</v>
@@ -43325,10 +43325,10 @@
         <v>14.08375</v>
       </c>
       <c r="F28" t="n">
-        <v>9.598750000000001</v>
+        <v>9.598749999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>7.812499999999999</v>
+        <v>7.8125</v>
       </c>
       <c r="H28" t="n">
         <v>7.07</v>
@@ -43372,7 +43372,7 @@
         <v>8.956250000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>7.770000000000001</v>
+        <v>7.77</v>
       </c>
       <c r="H29" t="n">
         <v>6.84125</v>
@@ -43381,7 +43381,7 @@
         <v>9.098749999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>9.612499999999999</v>
+        <v>9.612500000000001</v>
       </c>
       <c r="K29" t="n">
         <v>12.7275</v>
@@ -43419,7 +43419,7 @@
         <v>6.68375</v>
       </c>
       <c r="H30" t="n">
-        <v>6.727500000000001</v>
+        <v>6.7275</v>
       </c>
       <c r="I30" t="n">
         <v>8.498750000000001</v>
@@ -43463,7 +43463,7 @@
         <v>8.07</v>
       </c>
       <c r="H31" t="n">
-        <v>6.4125</v>
+        <v>6.412500000000001</v>
       </c>
       <c r="I31" t="n">
         <v>8.27</v>
@@ -43504,7 +43504,7 @@
         <v>10.54125</v>
       </c>
       <c r="G32" t="n">
-        <v>9.28375</v>
+        <v>9.283750000000001</v>
       </c>
       <c r="H32" t="n">
         <v>5.77</v>
@@ -43545,16 +43545,16 @@
         <v>11.18375</v>
       </c>
       <c r="F33" t="n">
-        <v>9.041250000000002</v>
+        <v>9.041249999999998</v>
       </c>
       <c r="G33" t="n">
-        <v>7.7125</v>
+        <v>7.712499999999999</v>
       </c>
       <c r="H33" t="n">
         <v>7.05625</v>
       </c>
       <c r="I33" t="n">
-        <v>8.727499999999999</v>
+        <v>8.727500000000001</v>
       </c>
       <c r="J33" t="n">
         <v>10.45625</v>
@@ -43592,7 +43592,7 @@
         <v>10.24125</v>
       </c>
       <c r="G34" t="n">
-        <v>6.570000000000001</v>
+        <v>6.57</v>
       </c>
       <c r="H34" t="n">
         <v>7.1275</v>
@@ -43686,7 +43686,7 @@
         <v>6.626250000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>6.911250000000001</v>
+        <v>6.91125</v>
       </c>
       <c r="J36" t="n">
         <v>9.36875</v>
@@ -43721,13 +43721,13 @@
         <v>13.53</v>
       </c>
       <c r="F37" t="n">
-        <v>9.387500000000001</v>
+        <v>9.387499999999999</v>
       </c>
       <c r="G37" t="n">
         <v>7.35875</v>
       </c>
       <c r="H37" t="n">
-        <v>7.53</v>
+        <v>7.530000000000001</v>
       </c>
       <c r="I37" t="n">
         <v>7.71625</v>
@@ -43774,7 +43774,7 @@
         <v>6.19</v>
       </c>
       <c r="I38" t="n">
-        <v>9.376249999999999</v>
+        <v>9.376250000000001</v>
       </c>
       <c r="J38" t="n">
         <v>9.86125</v>
@@ -43900,7 +43900,7 @@
         <v>10.52875</v>
       </c>
       <c r="G41" t="n">
-        <v>7.557499999999999</v>
+        <v>7.5575</v>
       </c>
       <c r="H41" t="n">
         <v>8.342500000000001</v>
@@ -43944,10 +43944,10 @@
         <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>8.413749999999999</v>
+        <v>8.41375</v>
       </c>
       <c r="H42" t="n">
-        <v>8.642499999999998</v>
+        <v>8.6425</v>
       </c>
       <c r="I42" t="n">
         <v>8</v>
@@ -43991,7 +43991,7 @@
         <v>7.88625</v>
       </c>
       <c r="H43" t="n">
-        <v>7.328749999999999</v>
+        <v>7.32875</v>
       </c>
       <c r="I43" t="n">
         <v>7.51375</v>
@@ -44029,7 +44029,7 @@
         <v>13.28125</v>
       </c>
       <c r="F44" t="n">
-        <v>9.409999999999998</v>
+        <v>9.41</v>
       </c>
       <c r="G44" t="n">
         <v>6.7525</v>
@@ -44079,7 +44079,7 @@
         <v>7.92375</v>
       </c>
       <c r="H45" t="n">
-        <v>6.52375</v>
+        <v>6.523750000000001</v>
       </c>
       <c r="I45" t="n">
         <v>8.91</v>
@@ -44123,7 +44123,7 @@
         <v>8.02375</v>
       </c>
       <c r="H46" t="n">
-        <v>7.367499999999999</v>
+        <v>7.367500000000001</v>
       </c>
       <c r="I46" t="n">
         <v>8.82375</v>
@@ -44211,7 +44211,7 @@
         <v>7.59625</v>
       </c>
       <c r="H48" t="n">
-        <v>6.938749999999999</v>
+        <v>6.93875</v>
       </c>
       <c r="I48" t="n">
         <v>9.081250000000001</v>
@@ -44258,7 +44258,7 @@
         <v>7.73875</v>
       </c>
       <c r="I49" t="n">
-        <v>8.209999999999999</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="J49" t="n">
         <v>10.5675</v>
@@ -44299,7 +44299,7 @@
         <v>8.2675</v>
       </c>
       <c r="H50" t="n">
-        <v>6.896249999999999</v>
+        <v>6.89625</v>
       </c>
       <c r="I50" t="n">
         <v>9.02375</v>
@@ -44346,7 +44346,7 @@
         <v>6.53875</v>
       </c>
       <c r="I51" t="n">
-        <v>8.452499999999999</v>
+        <v>8.452500000000001</v>
       </c>
       <c r="J51" t="n">
         <v>9.49625</v>
@@ -44387,7 +44387,7 @@
         <v>7.452500000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>7.467499999999999</v>
+        <v>7.4675</v>
       </c>
       <c r="I52" t="n">
         <v>8.41</v>
@@ -44431,7 +44431,7 @@
         <v>8.63875</v>
       </c>
       <c r="H53" t="n">
-        <v>7.896249999999999</v>
+        <v>7.896250000000001</v>
       </c>
       <c r="I53" t="n">
         <v>7.952500000000001</v>
@@ -44481,7 +44481,7 @@
         <v>7.84875</v>
       </c>
       <c r="J54" t="n">
-        <v>9.59125</v>
+        <v>9.591249999999999</v>
       </c>
       <c r="K54" t="n">
         <v>13.6775</v>
@@ -44560,7 +44560,7 @@
         <v>10.23375</v>
       </c>
       <c r="G56" t="n">
-        <v>7.562500000000002</v>
+        <v>7.562500000000001</v>
       </c>
       <c r="H56" t="n">
         <v>7.2775</v>
@@ -44610,7 +44610,7 @@
         <v>8.21875</v>
       </c>
       <c r="I57" t="n">
-        <v>8.132499999999999</v>
+        <v>8.1325</v>
       </c>
       <c r="J57" t="n">
         <v>9.67625</v>
@@ -44651,7 +44651,7 @@
         <v>7.97625</v>
       </c>
       <c r="H58" t="n">
-        <v>6.461250000000001</v>
+        <v>6.46125</v>
       </c>
       <c r="I58" t="n">
         <v>7.86125</v>
@@ -44736,7 +44736,7 @@
         <v>10.51875</v>
       </c>
       <c r="G60" t="n">
-        <v>7.461250000000001</v>
+        <v>7.46125</v>
       </c>
       <c r="H60" t="n">
         <v>7.1475</v>
@@ -44780,13 +44780,13 @@
         <v>11.1825</v>
       </c>
       <c r="G61" t="n">
-        <v>8.311249999999999</v>
+        <v>8.311250000000001</v>
       </c>
       <c r="H61" t="n">
-        <v>6.768750000000001</v>
+        <v>6.76875</v>
       </c>
       <c r="I61" t="n">
-        <v>8.797500000000001</v>
+        <v>8.797499999999999</v>
       </c>
       <c r="J61" t="n">
         <v>9.36875</v>
@@ -44871,10 +44871,10 @@
         <v>8.739999999999998</v>
       </c>
       <c r="H63" t="n">
-        <v>8.539999999999999</v>
+        <v>8.540000000000001</v>
       </c>
       <c r="I63" t="n">
-        <v>9.11125</v>
+        <v>9.111249999999998</v>
       </c>
       <c r="J63" t="n">
         <v>10.51125</v>
@@ -44918,7 +44918,7 @@
         <v>7.54</v>
       </c>
       <c r="I64" t="n">
-        <v>9.353749999999998</v>
+        <v>9.35375</v>
       </c>
       <c r="J64" t="n">
         <v>10.3975</v>
@@ -44956,13 +44956,13 @@
         <v>10.11125</v>
       </c>
       <c r="G65" t="n">
-        <v>6.64</v>
+        <v>6.640000000000001</v>
       </c>
       <c r="H65" t="n">
-        <v>7.782500000000001</v>
+        <v>7.7825</v>
       </c>
       <c r="I65" t="n">
-        <v>7.31125</v>
+        <v>7.311249999999999</v>
       </c>
       <c r="J65" t="n">
         <v>11.15375</v>
@@ -45003,10 +45003,10 @@
         <v>8.71125</v>
       </c>
       <c r="H66" t="n">
-        <v>7.253750000000001</v>
+        <v>7.25375</v>
       </c>
       <c r="I66" t="n">
-        <v>8.526249999999999</v>
+        <v>8.526250000000001</v>
       </c>
       <c r="J66" t="n">
         <v>10.8825</v>
@@ -45091,10 +45091,10 @@
         <v>7.42625</v>
       </c>
       <c r="H68" t="n">
-        <v>7.22625</v>
+        <v>7.226249999999999</v>
       </c>
       <c r="I68" t="n">
-        <v>8.94</v>
+        <v>8.939999999999998</v>
       </c>
       <c r="J68" t="n">
         <v>10.1825</v>
@@ -45135,7 +45135,7 @@
         <v>7.393750000000001</v>
       </c>
       <c r="H69" t="n">
-        <v>7.393750000000001</v>
+        <v>7.39375</v>
       </c>
       <c r="I69" t="n">
         <v>8.7225</v>
@@ -45179,7 +45179,7 @@
         <v>8.16625</v>
       </c>
       <c r="H70" t="n">
-        <v>7.866249999999999</v>
+        <v>7.86625</v>
       </c>
       <c r="I70" t="n">
         <v>8.422499999999999</v>
@@ -45270,7 +45270,7 @@
         <v>8.20875</v>
       </c>
       <c r="I72" t="n">
-        <v>8.008750000000001</v>
+        <v>8.008749999999999</v>
       </c>
       <c r="J72" t="n">
         <v>10.5375</v>
@@ -45355,7 +45355,7 @@
         <v>9.19375</v>
       </c>
       <c r="H74" t="n">
-        <v>7.79375</v>
+        <v>7.793750000000001</v>
       </c>
       <c r="I74" t="n">
         <v>7.60875</v>
@@ -45440,7 +45440,7 @@
         <v>10.20875</v>
       </c>
       <c r="G76" t="n">
-        <v>8.251249999999999</v>
+        <v>8.251250000000001</v>
       </c>
       <c r="H76" t="n">
         <v>6.90875</v>
@@ -45487,7 +45487,7 @@
         <v>9.18</v>
       </c>
       <c r="H77" t="n">
-        <v>8.593749999999998</v>
+        <v>8.59375</v>
       </c>
       <c r="I77" t="n">
         <v>9.751250000000001</v>
@@ -45531,7 +45531,7 @@
         <v>9.4375</v>
       </c>
       <c r="H78" t="n">
-        <v>8.779999999999999</v>
+        <v>8.780000000000001</v>
       </c>
       <c r="I78" t="n">
         <v>8.393750000000001</v>
@@ -45572,13 +45572,13 @@
         <v>10.6375</v>
       </c>
       <c r="G79" t="n">
-        <v>8.366250000000001</v>
+        <v>8.366249999999999</v>
       </c>
       <c r="H79" t="n">
         <v>7.037500000000001</v>
       </c>
       <c r="I79" t="n">
-        <v>7.79375</v>
+        <v>7.793749999999999</v>
       </c>
       <c r="J79" t="n">
         <v>10.06625</v>
@@ -45657,16 +45657,16 @@
         <v>12.00625</v>
       </c>
       <c r="F81" t="n">
-        <v>9.80625</v>
+        <v>9.806249999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>9.006250000000001</v>
+        <v>9.00625</v>
       </c>
       <c r="H81" t="n">
-        <v>8.83375</v>
+        <v>8.833749999999998</v>
       </c>
       <c r="I81" t="n">
-        <v>9.248749999999999</v>
+        <v>9.248750000000001</v>
       </c>
       <c r="J81" t="n">
         <v>11.84875</v>
@@ -45798,7 +45798,7 @@
         <v>7.06</v>
       </c>
       <c r="I84" t="n">
-        <v>9.5175</v>
+        <v>9.517499999999998</v>
       </c>
       <c r="J84" t="n">
         <v>10.86</v>
@@ -45883,7 +45883,7 @@
         <v>9.546249999999999</v>
       </c>
       <c r="H86" t="n">
-        <v>7.902500000000001</v>
+        <v>7.9025</v>
       </c>
       <c r="I86" t="n">
         <v>7.96</v>
@@ -45924,16 +45924,16 @@
         <v>10.86</v>
       </c>
       <c r="G87" t="n">
-        <v>7.802499999999999</v>
+        <v>7.8025</v>
       </c>
       <c r="H87" t="n">
-        <v>7.37375</v>
+        <v>7.373750000000001</v>
       </c>
       <c r="I87" t="n">
         <v>9.188749999999999</v>
       </c>
       <c r="J87" t="n">
-        <v>9.56</v>
+        <v>9.560000000000002</v>
       </c>
       <c r="K87" t="n">
         <v>11.08875</v>
@@ -46012,10 +46012,10 @@
         <v>10.34625</v>
       </c>
       <c r="G89" t="n">
-        <v>7.746249999999999</v>
+        <v>7.74625</v>
       </c>
       <c r="H89" t="n">
-        <v>7.64625</v>
+        <v>7.646249999999999</v>
       </c>
       <c r="I89" t="n">
         <v>7.98875</v>
@@ -46059,7 +46059,7 @@
         <v>8.233750000000001</v>
       </c>
       <c r="H90" t="n">
-        <v>7.29125</v>
+        <v>7.291250000000001</v>
       </c>
       <c r="I90" t="n">
         <v>8.577500000000001</v>
@@ -46103,7 +46103,7 @@
         <v>9.016249999999999</v>
       </c>
       <c r="H91" t="n">
-        <v>9.616249999999999</v>
+        <v>9.616250000000001</v>
       </c>
       <c r="I91" t="n">
         <v>8.571249999999999</v>
@@ -46150,7 +46150,7 @@
         <v>8.3575</v>
       </c>
       <c r="I92" t="n">
-        <v>8.742500000000001</v>
+        <v>8.7425</v>
       </c>
       <c r="J92" t="n">
         <v>11.0575</v>
@@ -46232,7 +46232,7 @@
         <v>11.3425</v>
       </c>
       <c r="G94" t="n">
-        <v>8.657499999999999</v>
+        <v>8.657500000000001</v>
       </c>
       <c r="H94" t="n">
         <v>6.7575</v>
@@ -46326,7 +46326,7 @@
         <v>7.11375</v>
       </c>
       <c r="I96" t="n">
-        <v>8.9</v>
+        <v>8.899999999999999</v>
       </c>
       <c r="J96" t="n">
         <v>10.51375</v>
@@ -46364,13 +46364,13 @@
         <v>11.3575</v>
       </c>
       <c r="G97" t="n">
-        <v>9.571249999999999</v>
+        <v>9.571250000000001</v>
       </c>
       <c r="H97" t="n">
-        <v>7.100000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="I97" t="n">
-        <v>7.628750000000001</v>
+        <v>7.62875</v>
       </c>
       <c r="J97" t="n">
         <v>9.813749999999999</v>
@@ -46414,7 +46414,7 @@
         <v>9.08625</v>
       </c>
       <c r="I98" t="n">
-        <v>9.786249999999999</v>
+        <v>9.786250000000001</v>
       </c>
       <c r="J98" t="n">
         <v>11.14875</v>
@@ -46452,7 +46452,7 @@
         <v>10.93375</v>
       </c>
       <c r="G99" t="n">
-        <v>7.177499999999998</v>
+        <v>7.1775</v>
       </c>
       <c r="H99" t="n">
         <v>8.09125</v>
@@ -46499,10 +46499,10 @@
         <v>7.848750000000001</v>
       </c>
       <c r="H100" t="n">
-        <v>7.977499999999999</v>
+        <v>7.977500000000001</v>
       </c>
       <c r="I100" t="n">
-        <v>8.962499999999999</v>
+        <v>8.9625</v>
       </c>
       <c r="J100" t="n">
         <v>10.53375</v>
@@ -46634,7 +46634,7 @@
         <v>7.6225</v>
       </c>
       <c r="I103" t="n">
-        <v>9.6225</v>
+        <v>9.622499999999999</v>
       </c>
       <c r="J103" t="n">
         <v>10.9375</v>
@@ -46678,7 +46678,7 @@
         <v>7.893750000000001</v>
       </c>
       <c r="I104" t="n">
-        <v>8.051250000000001</v>
+        <v>8.05125</v>
       </c>
       <c r="J104" t="n">
         <v>9.7225</v>
@@ -46716,13 +46716,13 @@
         <v>10.20875</v>
       </c>
       <c r="G105" t="n">
-        <v>7.822499999999999</v>
+        <v>7.822500000000001</v>
       </c>
       <c r="H105" t="n">
         <v>8.45125</v>
       </c>
       <c r="I105" t="n">
-        <v>9.90875</v>
+        <v>9.908750000000001</v>
       </c>
       <c r="J105" t="n">
         <v>10.80875</v>
@@ -46763,7 +46763,7 @@
         <v>8.993749999999999</v>
       </c>
       <c r="H106" t="n">
-        <v>9.022499999999999</v>
+        <v>9.022500000000001</v>
       </c>
       <c r="I106" t="n">
         <v>10.48</v>
@@ -46851,10 +46851,10 @@
         <v>8.766249999999999</v>
       </c>
       <c r="H108" t="n">
-        <v>7.666250000000001</v>
+        <v>7.66625</v>
       </c>
       <c r="I108" t="n">
-        <v>8.522499999999999</v>
+        <v>8.522500000000001</v>
       </c>
       <c r="J108" t="n">
         <v>9.69375</v>
@@ -46936,10 +46936,10 @@
         <v>10.48</v>
       </c>
       <c r="G110" t="n">
-        <v>8.766250000000001</v>
+        <v>8.766249999999999</v>
       </c>
       <c r="H110" t="n">
-        <v>7.893750000000001</v>
+        <v>7.89375</v>
       </c>
       <c r="I110" t="n">
         <v>10.08</v>
@@ -47118,7 +47118,7 @@
         <v>8.90875</v>
       </c>
       <c r="I114" t="n">
-        <v>9.751249999999999</v>
+        <v>9.751250000000001</v>
       </c>
       <c r="J114" t="n">
         <v>10.7225</v>
@@ -47206,7 +47206,7 @@
         <v>9.137499999999999</v>
       </c>
       <c r="I116" t="n">
-        <v>8.408750000000001</v>
+        <v>8.40875</v>
       </c>
       <c r="J116" t="n">
         <v>11.85125</v>
@@ -47241,16 +47241,16 @@
         <v>13.8225</v>
       </c>
       <c r="F117" t="n">
-        <v>9.822499999999998</v>
+        <v>9.8225</v>
       </c>
       <c r="G117" t="n">
         <v>9.879999999999999</v>
       </c>
       <c r="H117" t="n">
-        <v>8.99375</v>
+        <v>8.993749999999999</v>
       </c>
       <c r="I117" t="n">
-        <v>9.808750000000002</v>
+        <v>9.80875</v>
       </c>
       <c r="J117" t="n">
         <v>11.2225</v>

--- a/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMean_unrounded_all_sites_all.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5576,55 +5576,81 @@
       <c r="K117" t="n">
         <v>15.4</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="M117" t="n">
+        <v>19.8</v>
+      </c>
       <c r="N117" t="n">
-        <v>15.68</v>
+        <v>16.14</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>19.99</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>20.49</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>18.89</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>16.59</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>14.24</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>12.07</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>11.15</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>11.74</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>13.15</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>14.57</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>16.21</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>18.51</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>15.63</v>
       </c>
     </row>
@@ -5639,7 +5665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10728,55 +10754,81 @@
       <c r="K117" t="n">
         <v>12.92</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="M117" t="n">
+        <v>17.82</v>
+      </c>
       <c r="N117" t="n">
-        <v>12.55</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>15.52</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>17.69</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>17.69</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>15.75</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>12.95</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>10.54</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>8.220000000000001</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>7.74</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>8.619999999999999</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>10.25</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>12.02</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>13.61</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>16.11</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>12.6</v>
       </c>
     </row>
@@ -10791,7 +10843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15960,55 +16012,81 @@
       <c r="K117" t="n">
         <v>13.04</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="M117" t="n">
+        <v>16.54</v>
+      </c>
       <c r="N117" t="n">
-        <v>13.1</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>15.64</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>16.9</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>17.23</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>15.85</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>13.78</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>11.98</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>9.81</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>9.140000000000001</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>9.619999999999999</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>10.81</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>12.05</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>13.42</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>15.51</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>13.01</v>
       </c>
     </row>
@@ -16023,7 +16101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21192,55 +21270,81 @@
       <c r="K117" t="n">
         <v>13</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="M117" t="n">
+        <v>18.6</v>
+      </c>
       <c r="N117" t="n">
-        <v>12.93</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>18.13</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>18.22</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>16.43</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>13.69</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>11.16</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>8.48</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>7.65</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>8.83</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>10.66</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>12.71</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>14.45</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>16.69</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>13.09</v>
       </c>
     </row>
@@ -21255,7 +21359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26330,55 +26434,75 @@
       <c r="K117" t="n">
         <v>12</v>
       </c>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>13.1</v>
+      </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.67</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>15.75</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>16.04</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>14.68</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>12.59</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>10.55</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>8.369999999999999</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>7.56</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>8.43</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>9.880000000000001</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>11.2</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>12.58</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>14.54</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>11.85</v>
       </c>
     </row>
@@ -26393,7 +26517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31562,55 +31686,81 @@
       <c r="K117" t="n">
         <v>12.3</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="M117" t="n">
+        <v>16.8</v>
+      </c>
       <c r="N117" t="n">
-        <v>11.57</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>15</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>16.86</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>16.8</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>14.99</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>12.25</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>9.76</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>6.92</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>6.4</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>7.71</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>9.720000000000001</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>11.6</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>13.28</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>15.46</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>11.81</v>
       </c>
     </row>
@@ -31625,7 +31775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36794,55 +36944,81 @@
       <c r="K117" t="n">
         <v>11.7</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="M117" t="n">
+        <v>15.5</v>
+      </c>
       <c r="N117" t="n">
-        <v>11.42</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>15.23</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>15.09</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>13.87</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>11.79</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>9.619999999999999</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>7.35</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>6.7</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>7.79</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>9.529999999999999</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>10.95</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>12.31</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>14</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>11.19</v>
       </c>
     </row>
@@ -36857,7 +37033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42026,55 +42202,81 @@
       <c r="K117" t="n">
         <v>12.91</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="M117" t="n">
+        <v>17.51</v>
+      </c>
       <c r="N117" t="n">
-        <v>12.7</v>
+        <v>13.26</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>16.34</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>17.22</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>17.36</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>15.78</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>13.38</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>11.12</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>8.75</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>8.960000000000001</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>10.57</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>12.16</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>13.69</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>15.83</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>12.74</v>
       </c>
     </row>
@@ -42089,7 +42291,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47258,55 +47460,81 @@
       <c r="K117" t="n">
         <v>12.90875</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>14.65125</v>
+      </c>
+      <c r="M117" t="n">
+        <v>17.51</v>
+      </c>
       <c r="N117" t="n">
-        <v>12.7</v>
+        <v>13.27</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>16.34285714285715</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>16.34</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>17.22</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>17.36</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>15.78</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>13.38</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>11.12</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>8.75</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>8.960000000000001</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>10.57</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>12.16</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>13.69</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>15.83</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>12.74</v>
       </c>
     </row>
